--- a/medicine/Mort/Cimetière_des_Capucins_(Bourges)/Cimetière_des_Capucins_(Bourges).xlsx
+++ b/medicine/Mort/Cimetière_des_Capucins_(Bourges)/Cimetière_des_Capucins_(Bourges).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Capucins_(Bourges)</t>
+          <t>Cimetière_des_Capucins_(Bourges)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Capucins est un cimetière situé à Bourges (Cher). C'est le plus ancien des cimetières actuels de la ville ; beaucoup de personnalités locales y sont enterrées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Capucins_(Bourges)</t>
+          <t>Cimetière_des_Capucins_(Bourges)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Capucins est situé dans le centre de Bourges, au sud-est de la cathédrale Saint-Étienne, dans le quartier des Marronniers. L'entrée principale donne sur la rue de Sarrebourg, à travers l'impasse Saint-Martin. Il a été, lors de sa création, placé « sous le vent de la ville », de manière que d'éventuelles émanations n'incommodent pas les habitants.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Capucins_(Bourges)</t>
+          <t>Cimetière_des_Capucins_(Bourges)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Destiné à remplacer de nombreux cimetières qui se trouvaient dans chacune des paroisses de la ville, le cimetière est établi en 1792[1] sur l'emplacement du couvent des Capucins, devenu bien national puis détruit. Il fut agrandi à plusieurs reprises, notamment en 1827. Il fut rapidement insuffisant et, dès 1836, un nouveau cimetière, le cimetière Saint-Lazare, fut ouvert dans l'actuel quartier de la gare.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Destiné à remplacer de nombreux cimetières qui se trouvaient dans chacune des paroisses de la ville, le cimetière est établi en 1792 sur l'emplacement du couvent des Capucins, devenu bien national puis détruit. Il fut agrandi à plusieurs reprises, notamment en 1827. Il fut rapidement insuffisant et, dès 1836, un nouveau cimetière, le cimetière Saint-Lazare, fut ouvert dans l'actuel quartier de la gare.
 On distingue deux parties :
 la partie la plus ancienne, à l'ouest (massifs 1 à 9) ;
 l'extension de 1827 (massifs 10 à 19).
-Il couvre aujourd'hui 2,7 hectares et comporte près de 4 000 concessions[2].
+Il couvre aujourd'hui 2,7 hectares et comporte près de 4 000 concessions.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Capucins_(Bourges)</t>
+          <t>Cimetière_des_Capucins_(Bourges)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Monuments remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tombe d'un receveur des finances, Georges Hecq, décorée d'un buste de l'intéressé sculpté par Auguste Rodin, qui était son ami.
 Pyramide en hommage aux morts d'une série d'explosions vers 1907.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Capucins_(Bourges)</t>
+          <t>Cimetière_des_Capucins_(Bourges)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Personnalités enterrées au cimetière des Capucins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean-Baptiste Augier (1769-1819), député du Cher.
 Paul-Adrien Bourdalouë (1798-1868), ingénieur et topographe.
